--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc103_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1142,10 +1154,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1189,28 +1201,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1235,28 +1247,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1414,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1449,28 +1461,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1507,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1720,10 +1732,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1767,28 +1779,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1813,28 +1825,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2009,10 +2021,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2056,28 +2068,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2102,28 +2114,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2356,10 +2368,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2403,28 +2415,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2449,28 +2461,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2616,10 +2628,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2663,28 +2675,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2709,28 +2721,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3512,10 +3524,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3559,28 +3571,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3605,28 +3617,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3917,10 +3929,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3964,28 +3976,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4010,28 +4022,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4148,10 +4160,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4195,28 +4207,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4241,28 +4253,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4379,10 +4391,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4426,28 +4438,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4472,28 +4484,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4610,10 +4622,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4657,28 +4669,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4703,28 +4715,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4841,10 +4853,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4888,28 +4900,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4934,28 +4946,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5043,10 +5055,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5090,28 +5102,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5136,28 +5148,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5303,10 +5315,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5350,28 +5362,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5396,28 +5408,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5534,10 +5546,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5581,28 +5593,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5627,28 +5639,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5736,10 +5748,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5783,28 +5795,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5829,28 +5841,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5938,10 +5950,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5985,28 +5997,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6031,28 +6043,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6140,10 +6152,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6187,28 +6199,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6233,28 +6245,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6325,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6372,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6418,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6486,10 +6498,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6533,28 +6545,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6579,28 +6591,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6671,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
